--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_48_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_48_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.289056814087006, 5.015883294720901]</t>
+          <t>[4.300151222311077, 5.00478888649683]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,37 +603,37 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.3647895373537695, -0.18868424345884716]</t>
+          <t>[-0.3522105877898465, -0.20126319302277018]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.009112269301227e-07</v>
+        <v>2.745860427921798e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.009112269301227e-07</v>
+        <v>2.745860427921798e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.1707902253256233</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.034222560504651334, 0.37580301115589787]</t>
+          <t>[-0.034154317612148155, 0.3757347682633947]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.1003014742814077</v>
+        <v>0.1001917350262955</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1003014742814077</v>
+        <v>0.1001917350262955</v>
       </c>
       <c r="W2" t="n">
         <v>1.142502502502545</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7789789789790103</v>
+        <v>0.8309109109109438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.506026026026079</v>
+        <v>1.454094094094146</v>
       </c>
     </row>
   </sheetData>
